--- a/tools/xlsx/Wind系统协议整理.xlsx
+++ b/tools/xlsx/Wind系统协议整理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\2016-NanoGrid\00-Docments\8-Hardware\K-Wind\4 - 产品说明书\1-通讯规约\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mageia/Dropbox/Workspace/meijizhan/tools/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22940" windowHeight="10400"/>
+    <workbookView xWindow="3380" yWindow="2940" windowWidth="26100" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,20 @@
     <sheet name="其他3" sheetId="7" r:id="rId7"/>
     <sheet name="说明" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="243">
   <si>
     <t>No.</t>
   </si>
@@ -864,16 +872,44 @@
   <si>
     <t>line</t>
   </si>
+  <si>
+    <t>CustomPower</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kW</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomEnergy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kWh</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomHB</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -940,7 +976,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -963,8 +999,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1075,12 +1129,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,12 +1306,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1271,7 +1352,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1401,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1450,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="294591977952364496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1441,12 +1522,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1476,12 +1557,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1685,32 +1766,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="13" width="10.08984375" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" customWidth="1"/>
-    <col min="15" max="15" width="8.36328125" customWidth="1"/>
-    <col min="16" max="16" width="41.1796875" customWidth="1"/>
-    <col min="17" max="17" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="41.1640625" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1763,138 +1844,84 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>15</v>
-      </c>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>234</v>
+      <c r="D2" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="16">
-        <v>0</v>
-      </c>
-      <c r="N2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
       <c r="O2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>15</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>234</v>
+      <c r="D3" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="16">
-        <v>0.01</v>
-      </c>
+      <c r="L3" s="16"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="O3" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="P3" s="51"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>235</v>
+      <c r="D4" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
       <c r="O4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17">
+        <v>242</v>
+      </c>
+      <c r="P4" s="51"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>15</v>
@@ -1903,19 +1930,19 @@
         <v>231</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>20</v>
@@ -1923,23 +1950,23 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="M5" s="16">
         <v>0</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>15</v>
@@ -1948,19 +1975,19 @@
         <v>231</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>20</v>
@@ -1970,21 +1997,15 @@
       <c r="L6" s="16">
         <v>0.01</v>
       </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
+      <c r="M6" s="16"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>15</v>
@@ -1996,16 +2017,16 @@
         <v>235</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>20</v>
@@ -2020,14 +2041,16 @@
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>15</v>
@@ -2039,16 +2062,16 @@
         <v>235</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>20</v>
@@ -2056,25 +2079,25 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M8" s="16">
         <v>0</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" s="44" customFormat="1">
-      <c r="A9" s="40">
-        <v>8</v>
-      </c>
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>5</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -2083,41 +2106,43 @@
       <c r="D9" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="42" t="s">
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40">
-        <v>1</v>
-      </c>
-      <c r="M9" s="40">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="M9" s="16">
         <v>0</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="43"/>
-    </row>
-    <row r="10" spans="1:17" s="44" customFormat="1">
-      <c r="A10" s="40">
-        <v>9</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>6</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -2126,41 +2151,41 @@
       <c r="D10" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="42" t="s">
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="40" t="s">
+      <c r="H10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40">
-        <v>0.01</v>
-      </c>
-      <c r="M10" s="40">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="16">
         <v>0</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="43"/>
-    </row>
-    <row r="11" spans="1:17" s="44" customFormat="1">
-      <c r="A11" s="40">
-        <v>10</v>
-      </c>
-      <c r="B11" s="41" t="s">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -2169,39 +2194,41 @@
       <c r="D11" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="42" t="s">
+      <c r="E11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40">
-        <v>1</v>
-      </c>
-      <c r="M11" s="40">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="16">
         <v>0</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="43"/>
-    </row>
-    <row r="12" spans="1:17" s="44" customFormat="1">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>15</v>
@@ -2210,19 +2237,19 @@
         <v>231</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>20</v>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="N12" s="40"/>
       <c r="O12" s="40" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P12" s="40"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" s="44" customFormat="1">
+    <row r="13" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>15</v>
@@ -2253,19 +2280,19 @@
         <v>231</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>20</v>
@@ -2273,21 +2300,21 @@
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M13" s="40">
         <v>0</v>
       </c>
       <c r="N13" s="40"/>
       <c r="O13" s="40" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="P13" s="40"/>
       <c r="Q13" s="43"/>
     </row>
-    <row r="14" spans="1:17" s="44" customFormat="1" ht="47.5" customHeight="1">
+    <row r="14" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>15</v>
@@ -2296,19 +2323,19 @@
         <v>231</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>20</v>
@@ -2322,183 +2349,187 @@
         <v>0</v>
       </c>
       <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="45" t="s">
-        <v>69</v>
-      </c>
+      <c r="O14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="40"/>
       <c r="Q14" s="43"/>
     </row>
-    <row r="15" spans="1:17" ht="370" customHeight="1">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
+        <v>11</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40">
+        <v>1</v>
+      </c>
+      <c r="M15" s="40">
+        <v>0</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="43"/>
+    </row>
+    <row r="16" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
+        <v>12</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="40">
+        <v>0</v>
+      </c>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="43"/>
+    </row>
+    <row r="17" spans="1:17" s="44" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40">
+        <v>13</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40">
+        <v>1</v>
+      </c>
+      <c r="M17" s="40">
+        <v>0</v>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="43"/>
+    </row>
+    <row r="18" spans="1:17" ht="370" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>14</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16">
         <v>1</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M18" s="16">
         <v>0</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="32" t="s">
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="Q15" s="14"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="29">
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
         <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="M16" s="29">
-        <v>0</v>
-      </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="29">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="M18" s="29">
-        <v>0</v>
-      </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="29">
-        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>74</v>
@@ -2507,19 +2538,19 @@
         <v>231</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>20</v>
@@ -2527,21 +2558,21 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="M19" s="29">
         <v>0</v>
       </c>
       <c r="N19" s="29"/>
       <c r="O19" s="29" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>74</v>
@@ -2550,19 +2581,19 @@
         <v>231</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I20" s="29" t="s">
         <v>20</v>
@@ -2572,19 +2603,15 @@
       <c r="L20" s="29">
         <v>0.01</v>
       </c>
-      <c r="M20" s="29">
-        <v>0</v>
-      </c>
+      <c r="M20" s="29"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>74</v>
@@ -2596,16 +2623,16 @@
         <v>235</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>20</v>
@@ -2620,14 +2647,14 @@
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>74</v>
@@ -2639,16 +2666,16 @@
         <v>235</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>44</v>
+        <v>77</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>20</v>
@@ -2656,21 +2683,21 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M22" s="29">
         <v>0</v>
       </c>
       <c r="N22" s="29"/>
       <c r="O22" s="29" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>74</v>
@@ -2682,16 +2709,16 @@
         <v>235</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>51</v>
+      <c r="H23" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>20</v>
@@ -2699,21 +2726,21 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="29">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="M23" s="29">
         <v>0</v>
       </c>
       <c r="N23" s="29"/>
       <c r="O23" s="29" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>74</v>
@@ -2725,16 +2752,16 @@
         <v>235</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="30" t="s">
-        <v>55</v>
+      <c r="H24" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>20</v>
@@ -2742,21 +2769,21 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="M24" s="29">
         <v>0</v>
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="29" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>74</v>
@@ -2768,16 +2795,16 @@
         <v>235</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="30" t="s">
-        <v>58</v>
+      <c r="H25" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>20</v>
@@ -2785,21 +2812,21 @@
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M25" s="29">
         <v>0</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>74</v>
@@ -2808,19 +2835,19 @@
         <v>231</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I26" s="29" t="s">
         <v>20</v>
@@ -2835,14 +2862,14 @@
       </c>
       <c r="N26" s="29"/>
       <c r="O26" s="29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>74</v>
@@ -2851,19 +2878,19 @@
         <v>231</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>63</v>
+        <v>205</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>20</v>
@@ -2871,21 +2898,21 @@
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M27" s="29">
         <v>0</v>
       </c>
       <c r="N27" s="29"/>
       <c r="O27" s="29" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
     </row>
-    <row r="28" spans="1:17" ht="42">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>74</v>
@@ -2894,19 +2921,19 @@
         <v>231</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>66</v>
+        <v>81</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I28" s="29" t="s">
         <v>20</v>
@@ -2920,36 +2947,36 @@
         <v>0</v>
       </c>
       <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="31" t="s">
-        <v>69</v>
-      </c>
+      <c r="O28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
     </row>
-    <row r="29" spans="1:17" ht="409.5">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>234</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I29" s="29" t="s">
         <v>20</v>
@@ -2963,28 +2990,157 @@
         <v>0</v>
       </c>
       <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="31" t="s">
+      <c r="O29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="29">
+        <v>0</v>
+      </c>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="1:17" ht="42" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29">
+        <v>1</v>
+      </c>
+      <c r="M31" s="29">
+        <v>0</v>
+      </c>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="1:17" ht="409" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29">
+        <v>1</v>
+      </c>
+      <c r="M32" s="29">
+        <v>0</v>
+      </c>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="Q29" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I30:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I33:I1048576 H2:H4">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64,U32,I32,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N5:N1048576 M2:M4">
       <formula1>"Big Endian,Littile Endian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I32">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D32">
       <formula1>"hide,num,line,bar,pie"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3001,16 +3157,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6328125"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3030,7 +3185,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3205,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
@@ -3070,7 +3225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
@@ -3090,7 +3245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
@@ -3108,7 +3263,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
@@ -3126,7 +3281,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>74</v>
       </c>
@@ -3146,7 +3301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>74</v>
       </c>
@@ -3166,7 +3321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>74</v>
       </c>
@@ -3186,7 +3341,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>74</v>
       </c>
@@ -3204,7 +3359,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>74</v>
       </c>
@@ -3232,25 +3387,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="8" width="51.26953125" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="36.54296875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3438,7 @@
       </c>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" ht="119" customHeight="1">
+    <row r="2" spans="1:11" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -3316,7 +3471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1">
+    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -3347,7 +3502,7 @@
       <c r="J3" s="36"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="34.5" customHeight="1">
+    <row r="4" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -3378,7 +3533,7 @@
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:11" ht="41.5" customHeight="1">
+    <row r="5" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -3407,7 +3562,7 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="39.5" customHeight="1">
+    <row r="6" spans="1:11" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <v>9</v>
       </c>
@@ -3438,7 +3593,7 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="124" customHeight="1">
+    <row r="7" spans="1:11" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -3471,7 +3626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="33.5" customHeight="1">
+    <row r="8" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -3502,7 +3657,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="9" spans="1:11" ht="26" customHeight="1">
+    <row r="9" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -3533,7 +3688,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:11" ht="27.5" customHeight="1">
+    <row r="10" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -3562,7 +3717,7 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
     </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1">
+    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>9</v>
       </c>
@@ -3608,23 +3763,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.6328125" style="13"/>
-    <col min="3" max="3" width="26.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.6328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="13" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="13"/>
+    <col min="3" max="3" width="26.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="15" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="8.6328125" style="13"/>
+    <col min="7" max="7" width="15.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3647,7 +3802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3668,7 +3823,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -3689,7 +3844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -3710,7 +3865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="53.5" customHeight="1">
+    <row r="5" spans="1:7" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -3733,7 +3888,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -3756,7 +3911,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -3777,7 +3932,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -3798,7 +3953,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -3819,7 +3974,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3840,7 +3995,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3861,7 +4016,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3882,7 +4037,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3903,7 +4058,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3924,7 +4079,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3945,7 +4100,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -3966,7 +4121,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3987,7 +4142,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -4008,7 +4163,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -4031,7 +4186,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -4052,7 +4207,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -4073,7 +4228,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -4094,7 +4249,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -4115,7 +4270,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -4136,7 +4291,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -4157,7 +4312,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -4178,7 +4333,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -4199,7 +4354,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -4220,7 +4375,7 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -4241,7 +4396,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -4262,7 +4417,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -4283,7 +4438,7 @@
       </c>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -4306,7 +4461,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -4327,7 +4482,7 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -4348,7 +4503,7 @@
       </c>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -4369,7 +4524,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -4392,7 +4547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
         <v>36</v>
       </c>
@@ -4413,7 +4568,7 @@
       </c>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -4434,7 +4589,7 @@
       </c>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>38</v>
       </c>
@@ -4466,24 +4621,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="8" width="49.81640625" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4512,7 +4667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="91">
+    <row r="2" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4542,7 +4697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90" customHeight="1">
+    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4569,7 +4724,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="91">
+    <row r="4" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4596,7 +4751,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="65">
+    <row r="5" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4644,16 +4799,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="59.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>163</v>
       </c>
@@ -4668,7 +4823,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="23" customHeight="1">
+    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>166</v>
       </c>
@@ -4681,7 +4836,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" customHeight="1">
+    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>169</v>
       </c>
@@ -4692,7 +4847,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" spans="1:5" ht="27.5" customHeight="1">
+    <row r="4" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>171</v>
       </c>
@@ -4703,7 +4858,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="49"/>
     </row>
-    <row r="5" spans="1:5" ht="31" customHeight="1">
+    <row r="5" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>173</v>
       </c>
@@ -4716,7 +4871,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="49"/>
     </row>
-    <row r="6" spans="1:5" ht="34.5" customHeight="1">
+    <row r="6" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>176</v>
       </c>
@@ -4745,15 +4900,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -4767,7 +4922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -4781,7 +4936,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>184</v>
       </c>
@@ -4795,7 +4950,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4809,7 +4964,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -4820,7 +4975,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -4848,17 +5003,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>196</v>
       </c>
@@ -4866,25 +5021,25 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>201</v>
       </c>
